--- a/pabi_security/xlsx_template/xlsx_report_assign_security.xlsx
+++ b/pabi_security/xlsx_template/xlsx_report_assign_security.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t xml:space="preserve">Assign Security</t>
   </si>
@@ -65,6 +65,66 @@
   </si>
   <si>
     <t xml:space="preserve">MG10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG30</t>
   </si>
   <si>
     <t xml:space="preserve">G1</t>
@@ -351,10 +411,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:BI12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -369,8 +429,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="11" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="32" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,64 +514,64 @@
       <c r="K11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="T11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="U11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="V11" s="13" t="s">
+      <c r="V11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="W11" s="13" t="s">
+      <c r="W11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="X11" s="13" t="s">
+      <c r="X11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Y11" s="13" t="s">
+      <c r="Y11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Z11" s="13" t="s">
+      <c r="Z11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="13" t="s">
+      <c r="AA11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AB11" s="13" t="s">
+      <c r="AB11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AC11" s="13" t="s">
+      <c r="AC11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AD11" s="13" t="s">
+      <c r="AD11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AE11" s="13" t="s">
+      <c r="AE11" s="12" t="s">
         <v>34</v>
       </c>
       <c r="AF11" s="13" t="s">
@@ -544,10 +604,70 @@
       <c r="AO11" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AP11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI11" s="13" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -582,17 +702,37 @@
       <c r="AF12" s="13"/>
       <c r="AG12" s="13"/>
       <c r="AH12" s="13"/>
-      <c r="AI12" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
-      <c r="AK12" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="AK12" s="13"/>
       <c r="AL12" s="13"/>
       <c r="AM12" s="13"/>
       <c r="AN12" s="13"/>
       <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD12" s="13"/>
+      <c r="BE12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF12" s="13"/>
+      <c r="BG12" s="13"/>
+      <c r="BH12" s="13"/>
+      <c r="BI12" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
